--- a/xlsx/第二代新凯恩斯主义经济学_intext.xlsx
+++ b/xlsx/第二代新凯恩斯主义经济学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>第二代新凯恩斯主义经济学</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_第二代新凯恩斯主义经济学</t>
+    <t>新凯恩斯学派</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_第二代新凯恩斯主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典經濟學派</t>
+    <t>新兴古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%B7%B4%E7%BE%85</t>
   </si>
   <si>
-    <t>羅伯特·巴羅</t>
+    <t>罗伯特·巴罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E6%9B%BC</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E8%80%B6%E5%80%AB</t>
   </si>
   <si>
-    <t>珍妮特·耶倫</t>
+    <t>珍妮特·耶伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%88%A9%E8%8C%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興凱恩斯學派</t>
+    <t>新兴凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%98%89%E5%9B%BE%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -299,9 +299,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -335,19 +332,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -365,13 +362,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B4%E5%87%AF%E6%81%A9%E6%96%AF%E5%AD%A6%E6%B4%BE</t>
@@ -2184,7 +2181,7 @@
         <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2210,10 +2207,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2239,10 +2236,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2268,10 +2265,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2297,10 +2294,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2326,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2355,10 +2352,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2384,10 +2381,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2413,10 +2410,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2442,10 +2439,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2471,10 +2468,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>51</v>
@@ -2500,10 +2497,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2529,10 +2526,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2558,10 +2555,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2587,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2616,10 +2613,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2645,10 +2642,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
